--- a/biology/Histoire de la zoologie et de la botanique/Musée_d'archéologie_et_d'histoire_naturelle_de_Montbéliard/Musée_d'archéologie_et_d'histoire_naturelle_de_Montbéliard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_d'archéologie_et_d'histoire_naturelle_de_Montbéliard/Musée_d'archéologie_et_d'histoire_naturelle_de_Montbéliard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27arch%C3%A9ologie_et_d%27histoire_naturelle_de_Montb%C3%A9liard</t>
+          <t>Musée_d'archéologie_et_d'histoire_naturelle_de_Montbéliard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée d'archéologie et d'histoire naturelle de Montbéliard ou musée Cuvier est un musée « d'archéologie et d'histoire naturelle franc-comtois » dédié à un des pères de la paléontologie et de l'anatomie comparée Georges Cuvier (né à Montbéliard, 1769-1832). Associé au musée du Château des ducs de Wurtemberg, il est hébergé depuis 1937 au Château de Montbéliard (XIIIe siècle) dans le département du Doubs[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée d'archéologie et d'histoire naturelle de Montbéliard ou musée Cuvier est un musée « d'archéologie et d'histoire naturelle franc-comtois » dédié à un des pères de la paléontologie et de l'anatomie comparée Georges Cuvier (né à Montbéliard, 1769-1832). Associé au musée du Château des ducs de Wurtemberg, il est hébergé depuis 1937 au Château de Montbéliard (XIIIe siècle) dans le département du Doubs.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27arch%C3%A9ologie_et_d%27histoire_naturelle_de_Montb%C3%A9liard</t>
+          <t>Musée_d'archéologie_et_d'histoire_naturelle_de_Montbéliard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La « Galerie Cuvier » expose l’œuvre du célèbre père de la paléontologie scientifique, Georges Cuvier, de la Préhistoire (mésolithique) au haut Moyen Âge avec des collections archéologiques principalement issues de sites archéologiques régionaux : fossiles, dinosaures, mammouths, homme de Néandertal, objets gallo-romains... ainsi qu'une galerie d'histoire naturelle. 
 			Georges Cuvier (1769-1832)
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27arch%C3%A9ologie_et_d%27histoire_naturelle_de_Montb%C3%A9liard</t>
+          <t>Musée_d'archéologie_et_d'histoire_naturelle_de_Montbéliard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Collection paléontologique régionale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fossiles de végétaux de Ronchamp (Paléobotanique, Carbonifère, -300 millions d’années)
 Ichtyosaure (reptile marin) de Noirefontaine (Jurassique, -180 millions d’années)
